--- a/UserCases.xlsx
+++ b/UserCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3802087f474609fa/BNTU/2021/my/diplom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{30DA8877-FE24-45C5-9C55-D4D3804CED88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0A6FE15-E6C8-4975-9EBC-F102F97D0DED}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{30DA8877-FE24-45C5-9C55-D4D3804CED88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02461D37-A20D-43E5-88F4-052FE99FA8FE}"/>
   <bookViews>
-    <workbookView xWindow="17460" yWindow="1515" windowWidth="21600" windowHeight="11505" xr2:uid="{58E6B253-53FD-4E84-A009-500A5433A81B}"/>
+    <workbookView xWindow="8295" yWindow="6585" windowWidth="21600" windowHeight="11505" xr2:uid="{58E6B253-53FD-4E84-A009-500A5433A81B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="105">
   <si>
     <t>UC1</t>
   </si>
@@ -203,11 +203,172 @@
     <t>Нажатие на кнопку "delete" у выбранной книги</t>
   </si>
   <si>
-    <t>1. Нажатие на кнопку "delete" у выбранной книги находясь на странице "library"
-2. Книга удалена, список книг в библиотеке обновлен</t>
-  </si>
-  <si>
     <t>UC8</t>
+  </si>
+  <si>
+    <t>Просмотр цитата по выбранной книге</t>
+  </si>
+  <si>
+    <t>Открыть список цитат</t>
+  </si>
+  <si>
+    <t>Список цитат открыт</t>
+  </si>
+  <si>
+    <t>Нажатие на кнопку "citation"</t>
+  </si>
+  <si>
+    <t>UC9</t>
+  </si>
+  <si>
+    <t>Удаление цитаты по выбранной книге</t>
+  </si>
+  <si>
+    <t>Удалить цитату</t>
+  </si>
+  <si>
+    <t>1. Нажатие на кнопку "citation" у выбранной книги находясь на странице "library".
+2. Модальное окно со списком цитат открыто.</t>
+  </si>
+  <si>
+    <t>1. Нажатие на кнопку "delete" у выбранной книги находясь на странице "library".
+2. Книга удалена, список книг в библиотеке обновлен.</t>
+  </si>
+  <si>
+    <t>Выбранная цитата удалена, список цитат обновлен</t>
+  </si>
+  <si>
+    <t>Нажатие на иконку удаления у выбранной цитаты</t>
+  </si>
+  <si>
+    <t>Просмотр отмеченных страниц по выбранной книге</t>
+  </si>
+  <si>
+    <t>Открыть список отмеченных страниц</t>
+  </si>
+  <si>
+    <t>Список отмеченных страниц открыт</t>
+  </si>
+  <si>
+    <t>Нажатие на кнопку "pages"</t>
+  </si>
+  <si>
+    <t>1. Нажатие на кнопку "pages" у выбранной книги находясь на странице "library".
+2. Модальное окно со списком отмеченных страниц открыто.</t>
+  </si>
+  <si>
+    <t>UC10</t>
+  </si>
+  <si>
+    <t>UC11</t>
+  </si>
+  <si>
+    <t>Удаление отмеченной страницы по выбранной книге</t>
+  </si>
+  <si>
+    <t>Выбранная страница удалена, список отмеченных страниц обновлен</t>
+  </si>
+  <si>
+    <t>UC12</t>
+  </si>
+  <si>
+    <t>Открытие отмеченной страницы по выбранной книге</t>
+  </si>
+  <si>
+    <t>Открыта страница "book" на выбранной странице</t>
+  </si>
+  <si>
+    <t>Нажатие на отмеченную страницу</t>
+  </si>
+  <si>
+    <t>1. Нажатие на иконку удаления у выбранной отмеченной страницы.
+2. Отмеченная страница удалена, список цитат обновлен.</t>
+  </si>
+  <si>
+    <t>1. Нажатие на иконку удаления у выбранной цитаты.
+2. Цитата удалена, список цитат обновлен.</t>
+  </si>
+  <si>
+    <t>1. Нажатие на отмеченную страницу.
+2. Отмеченная страница открыта.</t>
+  </si>
+  <si>
+    <t>UC13</t>
+  </si>
+  <si>
+    <t>Открытие выбранной книги</t>
+  </si>
+  <si>
+    <t>Открыть страницу на последней прочитанной странице</t>
+  </si>
+  <si>
+    <t>Открытие страницы на последней прочитанной странице</t>
+  </si>
+  <si>
+    <t>клик на изображение книги на странице "library"</t>
+  </si>
+  <si>
+    <t>1. Клик на изображение книги на странице "library".
+2. Переход на страницу "book", открывается выбранная книга на последней прочитанной странице.</t>
+  </si>
+  <si>
+    <t>UC14</t>
+  </si>
+  <si>
+    <t>Переключить страницу для текужей кники</t>
+  </si>
+  <si>
+    <t>Переключить страницу</t>
+  </si>
+  <si>
+    <t>Страница сменилась и отрисовалась, индекс страницы обновлен</t>
+  </si>
+  <si>
+    <t>Стрелки по бокам экрана на странице "book"</t>
+  </si>
+  <si>
+    <t>2.1 Страница не переключена, при условии что выбранной страницы не существует.</t>
+  </si>
+  <si>
+    <t>1. Нажатие на стрелку переключения страницы.
+2. Страницы переключена, индекс страницы обновлен.</t>
+  </si>
+  <si>
+    <t>UC15</t>
+  </si>
+  <si>
+    <t>Отметить страницу</t>
+  </si>
+  <si>
+    <t>Отметить страницу, обновить список отмеченных страниц</t>
+  </si>
+  <si>
+    <t>Страница отмечена</t>
+  </si>
+  <si>
+    <t>Нажаие на иконку "star" на странице "book"</t>
+  </si>
+  <si>
+    <t>1. Нажаие на иконку "star" на странице "book".
+2. Страница отмечена, иконка обновилась, выбранная страница добавилась в список отмеченных страниц.</t>
+  </si>
+  <si>
+    <t>хоткеи</t>
+  </si>
+  <si>
+    <t>изменение масштаба</t>
+  </si>
+  <si>
+    <t>пометка цитаты</t>
+  </si>
+  <si>
+    <t>полноэкранный режим</t>
+  </si>
+  <si>
+    <t>публикация книги</t>
+  </si>
+  <si>
+    <t>получение книги из магазина</t>
   </si>
 </sst>
 </file>
@@ -308,9 +469,6 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -321,6 +479,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,618 +796,1077 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B34851-3AA9-46D3-AB5F-26B03A002B04}">
-  <dimension ref="A2:B89"/>
+  <dimension ref="A2:D145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="B112" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="6"/>
+      <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="103.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="6"/>
+      <c r="B26" s="5"/>
     </row>
     <row r="27" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="132.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B34" s="6"/>
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B42" s="6"/>
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="6"/>
+      <c r="B50" s="5"/>
     </row>
     <row r="51" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
+      <c r="A53" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
+      <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
+      <c r="B58" s="5"/>
+    </row>
+    <row r="59" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
+    <row r="66" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="5"/>
+    </row>
+    <row r="67" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
+      <c r="B67" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
+      <c r="B68" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
+      <c r="B69" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="B70" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
+      <c r="B71" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
+      <c r="B72" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+    <row r="74" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="5"/>
+    </row>
+    <row r="75" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="5"/>
+    </row>
+    <row r="83" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B90" s="5"/>
+    </row>
+    <row r="91" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="5"/>
+    </row>
+    <row r="107" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B114" s="5"/>
+    </row>
+    <row r="115" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
+      <c r="B122" s="5"/>
+      <c r="D122" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
+      <c r="D123" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
+      <c r="D124" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
+      <c r="D125" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
+      <c r="D126" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
+    <row r="128" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
+    <row r="129" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+    <row r="130" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+    <row r="132" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
+    <row r="133" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
+    <row r="134" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
+    <row r="135" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
+    <row r="136" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
+    <row r="137" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+    <row r="138" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
+      <c r="B138" s="5"/>
+    </row>
+    <row r="139" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
+    <row r="140" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
+    <row r="141" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
+    <row r="142" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
+    <row r="143" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
+    <row r="144" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
+    <row r="145" spans="1:1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="18">
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A66:B66"/>
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A42:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/UserCases.xlsx
+++ b/UserCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3802087f474609fa/BNTU/2021/my/diplom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{30DA8877-FE24-45C5-9C55-D4D3804CED88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{02461D37-A20D-43E5-88F4-052FE99FA8FE}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{30DA8877-FE24-45C5-9C55-D4D3804CED88}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{BCA03EAD-7E27-44D9-BE28-3AA1ACE2EAE9}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="6585" windowWidth="21600" windowHeight="11505" xr2:uid="{58E6B253-53FD-4E84-A009-500A5433A81B}"/>
+    <workbookView xWindow="7200" yWindow="4245" windowWidth="21600" windowHeight="11505" xr2:uid="{58E6B253-53FD-4E84-A009-500A5433A81B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="145">
   <si>
     <t>UC1</t>
   </si>
@@ -353,22 +353,167 @@
 2. Страница отмечена, иконка обновилась, выбранная страница добавилась в список отмеченных страниц.</t>
   </si>
   <si>
-    <t>хоткеи</t>
-  </si>
-  <si>
-    <t>изменение масштаба</t>
-  </si>
-  <si>
-    <t>пометка цитаты</t>
-  </si>
-  <si>
-    <t>полноэкранный режим</t>
-  </si>
-  <si>
-    <t>публикация книги</t>
-  </si>
-  <si>
-    <t>получение книги из магазина</t>
+    <t>UC16</t>
+  </si>
+  <si>
+    <t>Выделение цитаты</t>
+  </si>
+  <si>
+    <t>Выделить цитату, и добавить ее в список цитат</t>
+  </si>
+  <si>
+    <t>Цитата выделена и добавлена в список цитата</t>
+  </si>
+  <si>
+    <t>Выделение текста на странице книги</t>
+  </si>
+  <si>
+    <t>1. Открытие книги.
+2. Выделение текста.
+3. Открывается модальное окно.
+4. Нажатие на кнопку "Add citation".
+5. Цитата добавлена в список цитат.
+6. Модальное окно закрывается.
+7. Убирается выделение текста.</t>
+  </si>
+  <si>
+    <t>4.1 Клик в не зоны модального окна.
+5.1 Модальное окно закрывается.
+6.1 Убирается выделение текста.</t>
+  </si>
+  <si>
+    <t>UC17</t>
+  </si>
+  <si>
+    <t>Использование Горячих клавиш</t>
+  </si>
+  <si>
+    <t>Управление страницами книги, и позицией скрола на странице через гояриче клавиши</t>
+  </si>
+  <si>
+    <t>Страницы переключаются, позиция на странице меняется</t>
+  </si>
+  <si>
+    <t>Клавиши "стрелки"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Нажатие кнопки "стрелка влево".
+2. Страница книги переключается на предыдущую.
+3. Индикатор страницы обновлен.
+4. Нажатие кнопки "стрелка вниз".
+5. Положение страницы сместилось по вертикали. </t>
+  </si>
+  <si>
+    <t>2.1 Стрница не переключается на предыдущую, при условии что текущая страница является первой.</t>
+  </si>
+  <si>
+    <t>UC18</t>
+  </si>
+  <si>
+    <t>Увеличить масштаб книги</t>
+  </si>
+  <si>
+    <t>Масштаб увеличен, потери качества текста нет</t>
+  </si>
+  <si>
+    <t>Нажатие на кнопку "+" на странице "book"</t>
+  </si>
+  <si>
+    <t>1. Нажатие на кнопку "+" на странице "book".
+2. Масштаб страницы увеличен.
+3. Индикатор масштаба обновил значение.</t>
+  </si>
+  <si>
+    <t>2.1. Масштаб страницы не изменен, если значение масштаба уже максимальное (3).
+3.1 Индикатор масштаба не изменен.</t>
+  </si>
+  <si>
+    <t>UC19</t>
+  </si>
+  <si>
+    <t>Уменьшение масштаба текста в книге</t>
+  </si>
+  <si>
+    <t>Увеличение масштаба текста в книге</t>
+  </si>
+  <si>
+    <t>Уменьшить масштаб книги</t>
+  </si>
+  <si>
+    <t>Масштаб уменьшен, потери качества текста нет</t>
+  </si>
+  <si>
+    <t>Нажатие на кнопку "-" на странице "book"</t>
+  </si>
+  <si>
+    <t>1. Нажатие на кнопку "-" на странице "book".
+2. Масштаб страницы уменьшен.
+3. Индикатор масштаба обновил значение.</t>
+  </si>
+  <si>
+    <t>UC20</t>
+  </si>
+  <si>
+    <t>Полноэкранный режим чтения</t>
+  </si>
+  <si>
+    <t>Включить полноэкранный режим для чтения книги</t>
+  </si>
+  <si>
+    <t>Полноэкранный режим активирован</t>
+  </si>
+  <si>
+    <t>Нажатие на кнопку полноэкранного режима на странице книги</t>
+  </si>
+  <si>
+    <t>1. Нажатие на кнопку полноэкранного режима на странице книги.
+2. Меню, название книги скрыто</t>
+  </si>
+  <si>
+    <t>Разместить книгу в магазине</t>
+  </si>
+  <si>
+    <t>Книга успешно размещена и домтупно к загрузке</t>
+  </si>
+  <si>
+    <t>Публикация книги</t>
+  </si>
+  <si>
+    <t>Нажатия на кнопку для публикации на книге</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку публикации на данной книге на странице "library".
+2. Открывается модальное окно для заполнения данных для публикации книги.
+3. Заполнение поле "Название книги", "Описание" (минимальная длинна 1 символ и максимальная 4000 символов), "Категория", "Теги" (формат заполнения тегов: #Название). Необходимо так же загрузить изображение обложки, поставить галочку для того чтобы убедиться в то что пользователь даете отчет о то что имеете авторские права и можете загружать в публичный доступ данную книгу.
+4. После успешного заполнения всех необходимых полей, кнопка "publish" становится активна.
+5. Нажатие на кноку "publish", модальное окно закрывается.
+6. На странице "Shop", появляется загруженная книга, она также доступна к загрузке.</t>
+  </si>
+  <si>
+    <t>4.1 При неправильно заполненных полях, кнопка "publish" не становится активной.</t>
+  </si>
+  <si>
+    <t>UC21</t>
+  </si>
+  <si>
+    <t>UC22</t>
+  </si>
+  <si>
+    <t>Загрузка книги из магазина</t>
+  </si>
+  <si>
+    <t>Загрузить книгу в библиотеку пользователя из магазина</t>
+  </si>
+  <si>
+    <t>Книга загружена и отображена в списке книг на странице "library"</t>
+  </si>
+  <si>
+    <t>Нажатие на кнопку "Get" на странице "shop"</t>
+  </si>
+  <si>
+    <t>1. Нажатие на кнопку "Get" на странице "shop" у выбранной книги.
+2. Модальное окно закрывается.
+3. Открывается страница "library", в список книг, добавлена выбранная книга и доступна для использования.</t>
   </si>
 </sst>
 </file>
@@ -796,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10B34851-3AA9-46D3-AB5F-26B03A002B04}">
-  <dimension ref="A2:D145"/>
+  <dimension ref="A2:B177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B112" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="89" workbookViewId="0">
+      <selection activeCell="A168" sqref="A168:B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" thickBottom="1" x14ac:dyDescent="0.3"/>
@@ -1639,7 +1784,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>7</v>
       </c>
@@ -1647,13 +1792,13 @@
         <v>91</v>
       </c>
     </row>
-    <row r="114" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B114" s="5"/>
     </row>
-    <row r="115" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>1</v>
       </c>
@@ -1661,7 +1806,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="116" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1814,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
@@ -1677,7 +1822,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="118" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>4</v>
       </c>
@@ -1685,7 +1830,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="119" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1838,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -1701,73 +1846,76 @@
         <v>98</v>
       </c>
     </row>
-    <row r="121" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
-        <v>48</v>
+        <v>99</v>
       </c>
       <c r="B122" s="5"/>
-      <c r="D122" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="116.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B129" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="130" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B130" s="5"/>
     </row>
@@ -1775,40 +1923,61 @@
       <c r="A131" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B131" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="132" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B134" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="135" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B137" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="138" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B138" s="5"/>
     </row>
@@ -1816,39 +1985,311 @@
       <c r="A139" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="B139" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="140" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B140" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="141" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B141" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="142" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B142" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="143" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B145" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B146" s="5"/>
+    </row>
+    <row r="147" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B154" s="5"/>
+    </row>
+    <row r="155" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B162" s="5"/>
+    </row>
+    <row r="163" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="264.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B170" s="5"/>
+    </row>
+    <row r="171" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="83.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="22">
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A122:B122"/>
     <mergeCell ref="A130:B130"/>
     <mergeCell ref="A138:B138"/>
@@ -1857,11 +2298,6 @@
     <mergeCell ref="A98:B98"/>
     <mergeCell ref="A106:B106"/>
     <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A50:B50"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A66:B66"/>
